--- a/biology/Médecine/Otorrhée/Otorrhée.xlsx
+++ b/biology/Médecine/Otorrhée/Otorrhée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Otorrh%C3%A9e</t>
+          <t>Otorrhée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'otorrhée est un écoulement de liquide séreux, mucoïde ou purulent provenant du conduit auditif externe, témoin d'une affection de l'oreille, le plus souvent d'origine infectieuse, comme lors d'une otite externe ou d'une otite moyenne avec perforation du tympan.
  Portail de la médecine                     </t>
